--- a/tourism india state wise.xlsx
+++ b/tourism india state wise.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eded1c9e32d3d517/GIS/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eded1c9e32d3d517/GIS/datasets/Tourism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0FCA5D1-16E8-4E08-AD39-E53F3358FFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C0FCA5D1-16E8-4E08-AD39-E53F3358FFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F143C3-F92B-4BC1-A51C-076256777075}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B58DDD7-E25E-4A15-8A89-DE736C5F90E7}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,8 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
